--- a/Regression/sprint_regression/Inbound_regression/Inbound_Enrollments_regression/inbox_files/Regression_test_scenarios.xlsx
+++ b/Regression/sprint_regression/Inbound_regression/Inbound_Enrollments_regression/inbox_files/Regression_test_scenarios.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\sprint_regression\Inbound_regression\Inbound_Enrollments_regression\inbox_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E51C4B9-7CE4-40E7-A4C2-242D4CD0C5BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75C78F-7CA1-4C14-B10B-136B3B36B12C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5220" windowWidth="26505" windowHeight="10380" tabRatio="673" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inbound_Test_Data _regressi (3)" sheetId="38" r:id="rId1"/>
     <sheet name="Inbound_Test_Data _regressi (2)" sheetId="36" r:id="rId2"/>
     <sheet name="NRG" sheetId="35" r:id="rId3"/>
-    <sheet name="Inbound_Test_Data _regression19" sheetId="34" r:id="rId4"/>
+    <sheet name="Inbound_Test_Data _regression" sheetId="34" r:id="rId4"/>
     <sheet name="Migration" sheetId="37" r:id="rId5"/>
     <sheet name="Inbound_Test_Data" sheetId="28" r:id="rId6"/>
   </sheets>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Inbound_Test_Data!$A$1:$W$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Inbound_Test_Data _regressi (2)'!$A$1:$W$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inbound_Test_Data _regressi (3)'!$A$1:$AB$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Inbound_Test_Data _regression19'!$A$1:$U$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Inbound_Test_Data _regression'!$A$1:$U$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Migration!$A$1:$AE$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NRG!$A$1:$W$19</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6857" uniqueCount="1537">
   <si>
     <t>first_name</t>
   </si>
@@ -4641,6 +4641,21 @@
   </si>
   <si>
     <t>ONO</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>PremiseType</t>
+  </si>
+  <si>
+    <t>Commodity_2</t>
   </si>
 </sst>
 </file>
@@ -10234,7 +10249,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD10"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10271,19 +10286,19 @@
         <v>1503</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>101</v>
+        <v>1532</v>
       </c>
       <c r="C1" s="104" t="s">
         <v>1506</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>4</v>
+        <v>1533</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>119</v>
+        <v>1534</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>104</v>
+        <v>1535</v>
       </c>
       <c r="G1" s="104" t="s">
         <v>1507</v>
@@ -10313,7 +10328,7 @@
         <v>630</v>
       </c>
       <c r="P1" s="104" t="s">
-        <v>120</v>
+        <v>1536</v>
       </c>
       <c r="Q1" s="104" t="s">
         <v>1515</v>
@@ -10719,7 +10734,9 @@
       <c r="N7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>1534</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
